--- a/biology/Zoologie/Eutropis_quadricarinata/Eutropis_quadricarinata.xlsx
+++ b/biology/Zoologie/Eutropis_quadricarinata/Eutropis_quadricarinata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eutropis quadricarinata est une espèce de sauriens de la famille des Scincidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eutropis quadricarinata est une espèce de sauriens de la famille des Scincidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Birmanie et en Inde[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Birmanie et en Inde.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Boulenger, 1887 : An account of the Scincoid lizards collected from Burma for the Genoa Civic Museum by Messrs. G.B. Comotto and L. Fea. Annali del Museo civico di storia naturale di Genova, sér. 2, vol. 4, p. 618-624 (texte intégral).</t>
         </is>
